--- a/PLSstatic_predicted_factors_matrix_9.xlsx
+++ b/PLSstatic_predicted_factors_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:AV10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,135 @@
       <c r="E1" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -466,6 +595,135 @@
       <c r="E2" t="n">
         <v>-0.8508879389404848</v>
       </c>
+      <c r="F2" t="n">
+        <v>-0.7602591727148386</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-0.6920007409971901</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-0.6435720261760709</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.6124987372399208</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-0.5964283756685235</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.5931636580442072</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-0.6006805073776416</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-0.6175718543634869</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-0.6413059350233982</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-0.670834152975351</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-0.7048353376748177</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-0.7421475087725541</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-0.7817569558882957</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-0.8227869675235326</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-0.8644865292148988</v>
+      </c>
+      <c r="U2" t="n">
+        <v>-0.9062192351012802</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-0.9474525727072</v>
+      </c>
+      <c r="W2" t="n">
+        <v>-0.9877476806646195</v>
+      </c>
+      <c r="X2" t="n">
+        <v>-1.026749638366043</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-1.064178319367433</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>-1.099819822423995</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-1.133518482283367</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>-1.165169454649098</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>-1.194711864607274</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>-1.222122504311377</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-1.247410063217429</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>-1.270609872262822</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-1.291779141858152</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-1.310992672286605</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>-1.327344921762911</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-1.341953700313463</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>-1.354928213871869</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-1.367388121652214</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-1.378398165792877</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-1.388075826869946</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>-1.396536554300202</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>-1.403892567384939</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-1.410251836933574</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-1.41571728424991</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>-1.420386247169416</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>-1.424349894897261</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>-1.427693031633958</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>-1.430493949975786</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -483,6 +741,135 @@
       <c r="E3" t="n">
         <v>-1.015538006261621</v>
       </c>
+      <c r="F3" t="n">
+        <v>-1.09515743381207</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-1.150943765969344</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-1.184172109578352</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-1.196868646581289</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1.191473247502333</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-1.170602472855668</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-1.136886657148634</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-1.094651582928511</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-1.042559940632087</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-0.9846839574015598</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-0.922965550420502</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>-0.8591114656691089</v>
+      </c>
+      <c r="R3" t="n">
+        <v>-0.7945949324778214</v>
+      </c>
+      <c r="S3" t="n">
+        <v>-0.7306645129371911</v>
+      </c>
+      <c r="T3" t="n">
+        <v>-0.6683572561580453</v>
+      </c>
+      <c r="U3" t="n">
+        <v>-0.6085144752477294</v>
+      </c>
+      <c r="V3" t="n">
+        <v>-0.5517989698257985</v>
+      </c>
+      <c r="W3" t="n">
+        <v>-0.4987128525709106</v>
+      </c>
+      <c r="X3" t="n">
+        <v>-0.4496153787103059</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>-0.404740351796014</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>-0.3642128067259559</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>-0.3280647652664525</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>-0.2962499298187297</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>-0.2686572344789716</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>-0.2451232131679243</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>-0.2254431759321005</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>-0.2093812086521564</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>-0.1966790298883552</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>-0.1870637525672243</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>-0.1800106521584161</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>-0.1755391014632891</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>-0.1733429341927239</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>-0.1733968024479257</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>-0.1751386035972928</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>-0.1783202454427878</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>-0.1827067755082777</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>-0.1880789066427763</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>-0.1942341923723175</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>-0.2009876593529053</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>-0.2081718445312998</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>-0.2156371328825759</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>-0.2232511133543254</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>-0.2308980065848366</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -500,6 +887,135 @@
       <c r="E4" t="n">
         <v>0.4165429890681493</v>
       </c>
+      <c r="F4" t="n">
+        <v>0.3155762739002607</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.2243438813769149</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.1431567861824545</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.07194779833904988</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.01038447419838437</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-0.04204479861821924</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-0.08596530164912111</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-0.1223835703203848</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.1514272219950144</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-0.1740723401603581</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-0.191033187461493</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>-0.2029885304990179</v>
+      </c>
+      <c r="R4" t="n">
+        <v>-0.2105807224333478</v>
+      </c>
+      <c r="S4" t="n">
+        <v>-0.214411438347741</v>
+      </c>
+      <c r="T4" t="n">
+        <v>-0.2150391063809562</v>
+      </c>
+      <c r="U4" t="n">
+        <v>-0.2129778286529795</v>
+      </c>
+      <c r="V4" t="n">
+        <v>-0.2086973511940212</v>
+      </c>
+      <c r="W4" t="n">
+        <v>-0.2026237566025569</v>
+      </c>
+      <c r="X4" t="n">
+        <v>-0.1951406580261814</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>-0.186590747487835</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>-0.1772776009991749</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>-0.1674676739675052</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>-0.157392438784787</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>-0.1472506266534135</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>-0.1372105409753349</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>-0.12741241233613</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>-0.1179707667730965</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>-0.1089767805271265</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>-0.1005005962972343</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>-0.09228132374652322</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>-0.0847114290073108</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>-0.07781427366181695</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>-0.07183520380568353</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>-0.06649193034313584</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>-0.06176256298845697</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>-0.05762660066732838</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>-0.05405822945372642</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>-0.05102703328902594</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>-0.04849914253122119</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>-0.04643840445839804</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>-0.04480690429334454</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>-0.04356618576141132</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>-0.04267779225237017</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -517,6 +1033,135 @@
       <c r="E5" t="n">
         <v>0.4545383416517716</v>
       </c>
+      <c r="F5" t="n">
+        <v>0.3668131959048426</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.2839507068157386</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.2072062838717841</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.1373172124016241</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.07463908836231137</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.01924797628227021</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-0.02898252948783842</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-0.07053462713825202</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.1054654307620328</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-0.1342864485474974</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-0.1574748477569726</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-0.1755310754207591</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-0.1889611401539343</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-0.1982653460764798</v>
+      </c>
+      <c r="T5" t="n">
+        <v>-0.2039300612581964</v>
+      </c>
+      <c r="U5" t="n">
+        <v>-0.2064216763694611</v>
+      </c>
+      <c r="V5" t="n">
+        <v>-0.2061822524692752</v>
+      </c>
+      <c r="W5" t="n">
+        <v>-0.2036264907297333</v>
+      </c>
+      <c r="X5" t="n">
+        <v>-0.1991397472820862</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>-0.1930768823934191</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>-0.1857617813427267</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>-0.1774874192161607</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>-0.1685163669575835</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>-0.159081654173899</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>-0.1493879175175217</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>-0.1396127735110563</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>-0.1299083625565629</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>-0.1204030173518345</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>-0.1112030145247076</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>-0.1020396509433896</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>-0.09340686660285395</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>-0.08533954839566744</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>-0.07814315559581533</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>-0.07150165719515762</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>-0.06543259014831139</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>-0.05993900632131818</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>-0.05501470024923359</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>-0.05064601190682375</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>-0.04681322494271737</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>-0.04349173731708471</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>-0.04065336892968459</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>-0.03826715024879328</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>-0.03630024818262956</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -534,6 +1179,135 @@
       <c r="E6" t="n">
         <v>-0.3617701544590102</v>
       </c>
+      <c r="F6" t="n">
+        <v>-0.2875556304377727</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-0.2272558158398836</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-0.178292891584949</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-0.1385796370082551</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-0.1064230664913872</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-0.08044657538095937</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-0.05952782121657463</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-0.04317670221739174</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.02976678056615259</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-0.01912217486375699</v>
+      </c>
+      <c r="P6" t="n">
+        <v>-0.01073887391196428</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>-0.004199959875895598</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.0008386098770637321</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.004660937002641329</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.007501780317139368</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.009555179721697711</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.01098148542743047</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.01191310170241592</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.01245919304509858</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.01270955188595672</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.0127377880271295</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.01260396879703189</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.01235681367560016</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.01203552672557002</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.01167133363430339</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.01128877682078503</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.01090681132628495</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.01053973561925495</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.01019798461673017</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.009847909900061767</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.009529773250847768</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.009246677049570712</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.009049957406574769</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.008899850152256559</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.008794253645357075</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.008728674704269376</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.008698558503135213</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.008699488885121332</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.008727225436492892</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.008777677651288878</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.008847075091897732</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.008931848870207438</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0.009028685957217366</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -551,6 +1325,135 @@
       <c r="E7" t="n">
         <v>0.1460606031209212</v>
       </c>
+      <c r="F7" t="n">
+        <v>0.1572152022666442</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.159825262587947</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.1563672459310119</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.1487289692852025</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.1383412886585612</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.1262809071855872</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.1133505575410376</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.1011944206220777</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.08792252601368455</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.0751380735703612</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.06304425481540185</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.05177228757762282</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.04139865901405324</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.03195884556920983</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.02345792456781109</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.01587874848186709</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.009188231112659595</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.003342174384040955</v>
+      </c>
+      <c r="X7" t="n">
+        <v>-0.001711031734601755</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>-0.006027578883891071</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>-0.009666080904506186</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>-0.01268593234905279</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>-0.0151460673214963</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>-0.01710402845736633</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>-0.01861527698651054</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>-0.01973269103627129</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>-0.02050621171660588</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>-0.02098260593517339</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>-0.02120532199699105</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>-0.02099411621835123</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>-0.02064916175262765</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>-0.02019606860579104</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>-0.01986362960874705</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>-0.01942257956983212</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>-0.01890165170982608</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>-0.01832604064448155</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>-0.01771719437703868</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>-0.0170931803944575</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>-0.01646905441980519</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>-0.01585719532541313</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>-0.01526759713447145</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>-0.01470816377825209</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>-0.01418494855964073</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -568,6 +1471,135 @@
       <c r="E8" t="n">
         <v>0.3338819152383649</v>
       </c>
+      <c r="F8" t="n">
+        <v>0.2628158805966708</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.2075081244933798</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.1648706089962542</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.1323384536496127</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.1077910991806053</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.08948686194533935</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.07600636524174294</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.06673300893179594</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.0595551496580881</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.05444303483284414</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.05081693519235733</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.04822781525732819</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.0463328985430056</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.04487504182128439</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.04366553456154552</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.04256984689118058</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.04149588600194089</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.04038437245632057</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.03920099972152435</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.03793008828975647</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.03656948836427296</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.03512652202526517</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.0336147874217594</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.03205167451702758</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.03045646494259822</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.02884890822264845</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.02724818354561123</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.02567217080864952</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0.02413696717955972</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0.02246143407319108</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0.02090400351443176</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0.01946463108698809</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0.01829683659613701</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0.01720174935839076</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0.01618563652801815</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0.01525266133571322</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0.01440498550323851</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0.01364303553206096</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0.01298370557573619</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>0.01238972727175431</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0.01187465197993267</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0.01143449706973342</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0.01106469366031872</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -585,6 +1617,135 @@
       <c r="E9" t="n">
         <v>0.2229084943137964</v>
       </c>
+      <c r="F9" t="n">
+        <v>0.1810243748474769</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.1408280121338121</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.1035372627067604</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.06991934393820627</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.04038785310752046</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.01508746890063615</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-0.00603431343406337</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-0.02329737842309076</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.03677569266459293</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-0.04686582259476891</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-0.05393927079685715</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>-0.05837481634568718</v>
+      </c>
+      <c r="R9" t="n">
+        <v>-0.06054403339321935</v>
+      </c>
+      <c r="S9" t="n">
+        <v>-0.06080162423398638</v>
+      </c>
+      <c r="T9" t="n">
+        <v>-0.05947911338231576</v>
+      </c>
+      <c r="U9" t="n">
+        <v>-0.05688103911566059</v>
+      </c>
+      <c r="V9" t="n">
+        <v>-0.05328299092654977</v>
+      </c>
+      <c r="W9" t="n">
+        <v>-0.04893099298823731</v>
+      </c>
+      <c r="X9" t="n">
+        <v>-0.04404185260399992</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>-0.03880418510855073</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>-0.03337989784169334</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>-0.02790597011281996</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>-0.02249640732096377</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>-0.01724427866000704</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>-0.01222377153183869</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>-0.007492213765688111</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>-0.003092028408943858</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.0009474037249480316</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0.004607990596766321</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0.007843069635131296</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0.01067935149587805</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.01312902387302114</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0.01531366196793891</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.01713454383492541</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0.01861259482010535</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.0197717528206996</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.02063758003645403</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0.02123651637198977</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0.02158546642938453</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0.02173028996742912</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0.0216874686688687</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0.02148195638437669</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0.02113752931815815</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -601,6 +1762,135 @@
       </c>
       <c r="E10" t="n">
         <v>0.0949726489036854</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.09907075162765233</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.09238864341679594</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.07951875008845853</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.06358256532671991</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.04666258337904799</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.03010823825215066</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.01475398697322115</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.001282200502343918</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.01053991343042337</v>
+      </c>
+      <c r="O10" t="n">
+        <v>-0.02039255394000702</v>
+      </c>
+      <c r="P10" t="n">
+        <v>-0.02832318344230364</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>-0.03444978301299181</v>
+      </c>
+      <c r="R10" t="n">
+        <v>-0.03893152263498485</v>
+      </c>
+      <c r="S10" t="n">
+        <v>-0.04194851182195285</v>
+      </c>
+      <c r="T10" t="n">
+        <v>-0.04368791060739256</v>
+      </c>
+      <c r="U10" t="n">
+        <v>-0.04433460286368713</v>
+      </c>
+      <c r="V10" t="n">
+        <v>-0.04406513587509352</v>
+      </c>
+      <c r="W10" t="n">
+        <v>-0.04304398325257474</v>
+      </c>
+      <c r="X10" t="n">
+        <v>-0.04142144580499342</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>-0.03933269367410376</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>-0.03689759127986498</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>-0.03422104769524859</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>-0.03139370872359053</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>-0.02849286039401504</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>-0.02558345217488874</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>-0.02271917591474047</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>-0.01994355631434822</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>-0.01729102280534957</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>-0.01478794267428497</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>-0.01226018766304235</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>-0.009994636287218953</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>-0.007973744265620683</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>-0.006287492824208868</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>-0.004771277352580458</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>-0.003428617587675291</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>-0.00225799876228415</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>-0.001254408955195571</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>-0.0004102807793255761</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0.0002839857092055594</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0.0008386180982040336</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0.001265240453637403</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0.001575676768571315</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0.001781854395812423</v>
       </c>
     </row>
   </sheetData>

--- a/PLSstatic_predicted_factors_matrix_9.xlsx
+++ b/PLSstatic_predicted_factors_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV10"/>
+  <dimension ref="A1:AU10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,9 +575,6 @@
       <c r="AU1" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="AV1" s="1" t="n">
-        <v>47</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -721,9 +718,6 @@
       <c r="AU2" t="n">
         <v>-1.427693031633958</v>
       </c>
-      <c r="AV2" t="n">
-        <v>-1.430493949975786</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -867,9 +861,6 @@
       <c r="AU3" t="n">
         <v>-0.2232511133543254</v>
       </c>
-      <c r="AV3" t="n">
-        <v>-0.2308980065848366</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1013,9 +1004,6 @@
       <c r="AU4" t="n">
         <v>-0.04356618576141132</v>
       </c>
-      <c r="AV4" t="n">
-        <v>-0.04267779225237017</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1159,9 +1147,6 @@
       <c r="AU5" t="n">
         <v>-0.03826715024879328</v>
       </c>
-      <c r="AV5" t="n">
-        <v>-0.03630024818262956</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1305,9 +1290,6 @@
       <c r="AU6" t="n">
         <v>0.008931848870207438</v>
       </c>
-      <c r="AV6" t="n">
-        <v>0.009028685957217366</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1451,9 +1433,6 @@
       <c r="AU7" t="n">
         <v>-0.01470816377825209</v>
       </c>
-      <c r="AV7" t="n">
-        <v>-0.01418494855964073</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1597,9 +1576,6 @@
       <c r="AU8" t="n">
         <v>0.01143449706973342</v>
       </c>
-      <c r="AV8" t="n">
-        <v>0.01106469366031872</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1743,9 +1719,6 @@
       <c r="AU9" t="n">
         <v>0.02148195638437669</v>
       </c>
-      <c r="AV9" t="n">
-        <v>0.02113752931815815</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1888,9 +1861,6 @@
       </c>
       <c r="AU10" t="n">
         <v>0.001575676768571315</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>0.001781854395812423</v>
       </c>
     </row>
   </sheetData>
